--- a/桌面/产品管理/抗通胀/抗通胀流程额度.xlsx
+++ b/桌面/产品管理/抗通胀/抗通胀流程额度.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16115D9-9C6F-491B-AD1F-BC2743554107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9292DD-6BF7-42F5-AECD-A6C60FCE6659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="395">
   <si>
     <t>代码</t>
   </si>
@@ -1267,6 +1267,50 @@
   </si>
   <si>
     <t>001766.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏希望债券A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>001011.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方红收益增强</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹏扬汇利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>华夏希望债券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>建信稳定得利</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>004585.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>001862.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>000875.OF</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>广发集丰A</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>002711.OF</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1927,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I54" sqref="I54"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3101,7 +3145,7 @@
         <v>45</v>
       </c>
       <c r="F47">
-        <f t="shared" ref="F47:F52" si="1">D47-E47</f>
+        <f t="shared" ref="F47:F53" si="1">D47-E47</f>
         <v>255</v>
       </c>
       <c r="G47" s="2">
@@ -3216,6 +3260,174 @@
         <v>300</v>
       </c>
       <c r="G52" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E53">
+        <v>1000</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D54" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54" si="2">D54-E54</f>
+        <v>1000</v>
+      </c>
+      <c r="G54" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E55">
+        <v>500</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55" si="3">D55-E55</f>
+        <v>500</v>
+      </c>
+      <c r="G55" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D56" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56" si="4">D56-E56</f>
+        <v>1000</v>
+      </c>
+      <c r="G56" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D57" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57" si="5">D57-E57</f>
+        <v>1000</v>
+      </c>
+      <c r="G57" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D58" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E58">
+        <v>1000</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58" si="6">D58-E58</f>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <v>44561</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D59" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59" si="7">D59-E59</f>
+        <v>1000</v>
+      </c>
+      <c r="G59" s="2">
         <v>44561</v>
       </c>
     </row>

--- a/桌面/产品管理/抗通胀/抗通胀流程额度.xlsx
+++ b/桌面/产品管理/抗通胀/抗通胀流程额度.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作电脑\桌面\产品管理\抗通胀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C9292DD-6BF7-42F5-AECD-A6C60FCE6659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF923641-ECE8-42BE-A8DA-F121838CEE8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1972,7 +1972,7 @@
   <dimension ref="A1:U94"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3301,11 +3301,11 @@
         <v>1000</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F54">
         <f t="shared" ref="F54" si="2">D54-E54</f>
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G54" s="2">
         <v>44561</v>
@@ -3325,11 +3325,11 @@
         <v>1000</v>
       </c>
       <c r="E55">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="F55">
         <f t="shared" ref="F55" si="3">D55-E55</f>
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="G55" s="2">
         <v>44561</v>
@@ -3397,11 +3397,11 @@
         <v>1000</v>
       </c>
       <c r="E58">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F58">
         <f t="shared" ref="F58" si="6">D58-E58</f>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G58" s="2">
         <v>44561</v>
